--- a/BetaCinema.ServerUI/Template/ExportTemplates/ShowtimeExport.xlsx
+++ b/BetaCinema.ServerUI/Template/ExportTemplates/ShowtimeExport.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\blazor\BetaCinema\BetaCinema.ServerUI\Template\ExportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED23AA3-1170-4B01-AC1C-45078E95EB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D710434F-87A8-46AC-888E-6C98976C53CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DANH SÁCH PHIM" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>STT</t>
   </si>
@@ -28,16 +28,19 @@
     <t>Bị xóa</t>
   </si>
   <si>
-    <t>DANH SÁCH GIỜ CHIẾU</t>
-  </si>
-  <si>
-    <t>ID Phim</t>
-  </si>
-  <si>
-    <t>ID Rạp chiếu</t>
-  </si>
-  <si>
     <t>Giờ chiếu</t>
+  </si>
+  <si>
+    <t>DANH SÁCH SUẤT CHIẾU</t>
+  </si>
+  <si>
+    <t>Rạp chiếu</t>
+  </si>
+  <si>
+    <t>Tên Phim</t>
+  </si>
+  <si>
+    <t>Giá vé</t>
   </si>
 </sst>
 </file>
@@ -450,54 +453,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B78FB58-FC69-45B8-BE8C-0DCDA3C69853}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.21875" style="7" customWidth="1"/>
-    <col min="2" max="3" width="40.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -505,11 +515,12 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
